--- a/nessus-name.xlsx
+++ b/nessus-name.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="309">
   <si>
     <t>Microsoft Windows SMBv1 Multiple Vulnerabilities</t>
   </si>
@@ -1207,14 +1207,17 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为禁用</t>
+      <t xml:space="preserve">IMAP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务</t>
     </r>
     <r>
       <rPr>
@@ -1223,17 +1226,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>HTTP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
+      <t>STARTTLS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>明文命令注入漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kibana ESA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全更新（</t>
     </r>
     <r>
       <rPr>
@@ -1242,33 +1261,29 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>TRACE/TRACK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">IMAP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务</t>
+      <t>ESA-2018-14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发现</t>
     </r>
     <r>
       <rPr>
@@ -1277,64 +1292,27 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>STARTTLS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>明文命令注入漏洞</t>
+      <t>mDNS</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Kibana ESA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安全更新（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微软</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>ESA-2018-14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发现</t>
+      <t>IIS 6</t>
     </r>
     <r>
       <rPr>
@@ -1343,14 +1321,55 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>mDNS</t>
+      <t xml:space="preserve">.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不再受支持</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
+      <t>Windows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程桌面协议中间人攻击漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Windows Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统版本不再受支持</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="黑体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -1360,10 +1379,34 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>IIS 6</t>
+      <t>Windows SMB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空会话验证漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微软</t>
     </r>
     <r>
       <rPr>
@@ -1372,76 +1415,48 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">.0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不再受支持</t>
+      <t>Windows SMBv0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MongoDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未授权访问漏洞</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Windows </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平台版本过低已不再支持存在多个漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Windows</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程桌面协议中间人攻击漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Windows Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统版本不再受支持</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>微软</t>
+      <t>MS 2647518</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -1450,30 +1465,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Windows SMB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>空会话验证漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>微软</t>
+      <t xml:space="preserve"> ActiveX Kill Bits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全更新</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KB28 20197</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -1482,38 +1499,22 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Windows SMBv0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多个漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MongoDB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未授权访问漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>MS 2647518</t>
+      <t>ActiveX Kill Bits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全更新</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KB300 9008</t>
     </r>
     <r>
       <rPr>
@@ -1532,22 +1533,22 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> ActiveX Kill Bits</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安全更新</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>KB28 20197</t>
+      <t>POODLE SSL 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息泄露漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MS11-090</t>
     </r>
     <r>
       <rPr>
@@ -1581,7 +1582,7 @@
   </si>
   <si>
     <r>
-      <t>KB300 9008</t>
+      <t>MS13-090</t>
     </r>
     <r>
       <rPr>
@@ -1600,32 +1601,46 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>POODLE SSL 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>信息泄露漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MS11-090</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
+      <t>ActiveX Kill Bits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全更新</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MS14-066</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：远程代码执行漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IM14-078</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：特权提升漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -1634,22 +1649,22 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>ActiveX Kill Bits</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安全更新</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MS13-090</t>
+      <t>2992719</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MS15-034</t>
     </r>
     <r>
       <rPr>
@@ -1668,22 +1683,22 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>ActiveX Kill Bits</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安全更新</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MS14-066</t>
+      <t xml:space="preserve">HTTP.sys </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程代码执行漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MS17-010</t>
     </r>
     <r>
       <rPr>
@@ -1697,17 +1712,94 @@
   </si>
   <si>
     <r>
-      <t>IM14-078</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：特权提升漏洞（</t>
+      <t>NTP 'ntp_request.c'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程拒绝服务漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个安全漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个拒绝服务漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL AES-NI CBC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中间人劫持漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Oracle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库版本不再受支持</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Redis DoS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -1716,7 +1808,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2992719</t>
+      <t>CVE-2017-15047</t>
     </r>
     <r>
       <rPr>
@@ -1731,17 +1823,62 @@
   </si>
   <si>
     <r>
-      <t>MS15-034</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
+      <t>Redis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务未执行密码认证保护</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Serv-U FTP SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拒绝服务漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Serv-U FTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拒绝服务漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SNMP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认</t>
     </r>
     <r>
       <rPr>
@@ -1750,137 +1887,37 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">HTTP.sys </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程代码执行漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MS17-010</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：远程代码执行漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NTP 'ntp_request.c'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程拒绝服务漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个安全漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个拒绝服务漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL AES-NI CBC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中间人劫持漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>OpenSSL 1.0.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低不再受支持</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Oracle </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据库版本不再受支持</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Redis DoS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>漏洞（</t>
+      <t>Community Name "public"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Solaris 10 Telnet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录认证绕过</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSL/TLS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受诫礼（</t>
     </r>
     <r>
       <rPr>
@@ -1889,77 +1926,89 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>CVE-2017-15047</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Redis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务未执行密码认证保护</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Serv-U FTP SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拒绝服务漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Serv-U FTP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拒绝服务漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SNMP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>默认</t>
+      <t>BAR-MITZVAH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）攻击漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSL v2/v3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开启</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">POODLE SSLv3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>趋势控制管理器远程命令执行漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FreeBSD 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统版本不再受支持</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VMware vCenter Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在安全更新</t>
     </r>
     <r>
       <rPr>
@@ -1968,37 +2017,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Community Name "public"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Solaris 10 Telnet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录认证绕过</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSL/TLS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>受诫礼（</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2007,89 +2036,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>BAR-MITZVAH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）攻击漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSL v2/v3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开启</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">POODLE SSLv3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安全漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>趋势控制管理器远程命令执行漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>FreeBSD 8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统版本不再受支持</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">VMware vCenter Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存在安全更新</t>
+      <t>VMSA-2015-0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -2100,15 +2057,20 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VMware vCenter 5.5 LDAP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书认证存在中间人欺骗漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2117,17 +2079,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2015-0001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2136,22 +2098,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">VMware vCenter 5.5 LDAP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证书认证存在中间人欺骗漏洞</t>
+      <t>VMSA-2015-0006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VMware vCenter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在多个安全漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2179,7 +2151,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2015-0006</t>
+      <t>VMSA-2015-0007</t>
     </r>
     <r>
       <rPr>
@@ -2191,6 +2163,7 @@
       </rPr>
       <t>）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2232,7 +2205,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2015-0007</t>
+      <t>VMSA-2015-0008</t>
     </r>
     <r>
       <rPr>
@@ -2244,21 +2217,20 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">VMware vCenter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存在多个安全漏洞</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vmware vCenter Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致</t>
     </r>
     <r>
       <rPr>
@@ -2267,17 +2239,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反序列化漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2286,32 +2258,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2015-0008</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vmware vCenter Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2320,17 +2277,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>反序列化漏洞</t>
+      <t>VMSA-2016-0005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vmware vCenter Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致反射性</t>
     </r>
     <r>
       <rPr>
@@ -2339,17 +2311,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>XSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2358,32 +2330,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2016-0005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vmware vCenter Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致反射性</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2392,17 +2349,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>XSS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>漏洞</t>
+      <t>VMSA-2016-0009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vmware vCenter Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致推理执行侧信道漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2430,7 +2402,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2016-0009</t>
+      <t>VMSA-2018-0020</t>
     </r>
     <r>
       <rPr>
@@ -2455,7 +2427,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>版本过低导致推理执行侧信道漏洞</t>
+      <t>版本过低导致多个</t>
     </r>
     <r>
       <rPr>
@@ -2464,17 +2436,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>XXE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2483,32 +2455,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2018-0020</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vmware vCenter Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2517,17 +2474,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>XXE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>漏洞</t>
+      <t>VMSA-2016-0022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VMware vCenter Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本较低导致多个安全楼漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2536,17 +2508,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t xml:space="preserve"> (VMSA-2017-0017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vmware vCenter Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致在超级管理员权限下</t>
     </r>
     <r>
       <rPr>
@@ -2555,32 +2542,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2016-0022</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>VMware vCenter Server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本较低导致多个安全楼漏洞</t>
+      <t>Guest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户复原漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2589,32 +2561,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> (VMSA-2017-0017</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vmware vCenter Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致在超级管理员权限下</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2623,17 +2580,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Guest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户复原漏洞</t>
+      <t>VMSA-2018-0004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -2644,15 +2601,20 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vmware vCenter Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个</t>
     </r>
     <r>
       <rPr>
@@ -2661,17 +2623,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2018-0004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2682,20 +2644,15 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vmware vCenter Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多个</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2704,36 +2661,328 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>漏洞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>VMSA-2015-0003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jboss </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低不再受支持</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致使用默认脆弱的块密码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Splunk Enterprise </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本较低导致多个安全漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器使用密文分组链接</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持弱算法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书带有错误的主机名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持中等强度密码套件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个安全漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致拒绝服务漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SNMP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反射型分布式拒绝服务攻击漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书过期</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>终端服务不只使用网络层认证</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>终端服务加密等级为中等或低</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>心脏出血漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自签名证书</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持弱密码套件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Apache HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>http:cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息公开</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apache Tomcat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多项安全漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ESXi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多项安全漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2742,328 +2991,36 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2015-0003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Jboss </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低不再受支持</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致使用默认脆弱的块密码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Splunk Enterprise </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本较低导致多个安全漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSH </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器使用密文分组链接</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSH </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持弱算法</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证书带有错误的主机名</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持中等强度密码套件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个安全漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致拒绝服务漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SNMP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>反射型分布式拒绝服务攻击漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证书过期</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>终端服务不只使用网络层认证</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>终端服务加密等级为中等或低</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>心脏出血漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自签名证书</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持弱密码套件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Apache HTTP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>http:cookie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>信息公开</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Apache Tomcat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多项安全漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ESXi </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多项安全漏洞</t>
+      <t>VMSA-2016-0002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -3074,15 +3031,20 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ESXI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多项安全漏洞</t>
     </r>
     <r>
       <rPr>
@@ -3091,17 +3053,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2016-0002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -3110,22 +3072,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ESXI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多项安全漏洞</t>
+      <t>VMSA-2017-0006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -3136,15 +3093,20 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+  </si>
+  <si>
+    <r>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据保护器多重漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -3153,7 +3115,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2017-0006</t>
+      <t>HPSBMU02595 SSRT101253</t>
     </r>
     <r>
       <rPr>
@@ -3164,6 +3126,36 @@
         <charset val="134"/>
       </rPr>
       <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HP Data Protector </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程命令执行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HP SMH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个安全漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -3172,100 +3164,60 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>HP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据保护器多重漏洞（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>HPSBMU03553</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OPENSL1.1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认弱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>HPSBMU02595 SSRT101253</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HP Data Protector </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程命令执行</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>HP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据保护器不支持</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>HP SMH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多个安全漏洞（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位分组密码（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>HPSBMU03553</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>SWEET32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="黑体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3275,16 +3227,16 @@
   </si>
   <si>
     <r>
-      <t>OpenSSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＜</t>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致</t>
     </r>
     <r>
       <rPr>
@@ -3292,110 +3244,83 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">0.98i </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>报文拒绝服务漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>OpenSSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t xml:space="preserve"> _ATTRIBUTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内存泄漏拒绝服务漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>0.98j</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>签名验证漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>OpenSSL &lt;0.98p/1.0.0b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缓冲区溢出</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>OpenSSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>DER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式数据处理漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Oracle MavVIEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个漏洞（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>0.98W ASN.1 asn1_d2i_Read_bio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内存损坏</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>OPENSL1.1.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>默认弱</t>
+      <t>2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
     </r>
     <r>
       <rPr>
@@ -3403,16 +3328,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位分组密码（</t>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
     </r>
     <r>
       <rPr>
@@ -3420,7 +3345,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>SWEET32</t>
+      <t>CPU</t>
     </r>
     <r>
       <rPr>
@@ -3434,30 +3359,13 @@
   </si>
   <si>
     <r>
-      <t>OpenSSL 0.98 &lt; 0.98xDTLS CBC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拒绝服务</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致</t>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
     </r>
     <r>
       <rPr>
@@ -3465,140 +3373,135 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> _ATTRIBUTE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内存泄漏拒绝服务漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>Bleichenbacher Oracle Threat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>DER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式数据处理漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Oracle MavVIEW</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多个漏洞（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>ROBOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）信息披露</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开启了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2012</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>SSH v1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>TLS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>CPU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>返回</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>协议</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ESXI 5.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多项安全漏洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Bleichenbacher Oracle Threat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="黑体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3608,53 +3511,84 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>ROBOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）信息披露</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开启了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>VMSA-2015-0007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器字节范围拒绝服务漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Apache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>SSH v1</t>
+      <t>ETag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标题信息公开</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检测到</t>
+      <t>MS16-047</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -3663,17 +3597,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>TLS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本</t>
+      <t>SAM/LSAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程协议安全更新</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NTP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模式</t>
     </r>
     <r>
       <rPr>
@@ -3682,33 +3632,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>协议</t>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扫描仪</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>ESXI 5.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多项安全漏洞</t>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个安全漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -3717,17 +3667,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>POODLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个安全漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -3736,7 +3702,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2015-0007</t>
+      <t>FREAK</t>
     </r>
     <r>
       <rPr>
@@ -3748,68 +3714,152 @@
       </rPr>
       <t>）</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>Apache HTTP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器字节范围拒绝服务漏洞</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>Apache</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致远程代码执行漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中间人解密漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回话重开加密降级漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Oracle Database Server 'TNS Listener'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程数据投毒漏洞（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>ETag</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标题信息公开</t>
+      <t>CVE-2012-1675</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>MS16-047</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
+      <t xml:space="preserve">Redis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致本地信息泄露漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Redis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个安全漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SMB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不要求签名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用弱</t>
     </r>
     <r>
       <rPr>
@@ -3818,33 +3868,46 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>SAM/LSAD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程协议安全更新</t>
+      <t>MAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>算法</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">NTP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模式</t>
+      <t xml:space="preserve">SSL/TLS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重新协商握手时中间人明文数据注入漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不可信</t>
     </r>
     <r>
       <rPr>
@@ -3853,33 +3916,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扫描仪</t>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个安全漏洞（</t>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书链存在少于</t>
     </r>
     <r>
       <rPr>
@@ -3888,33 +3951,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>POODLE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个安全漏洞（</t>
+      <t>2048bits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
     </r>
     <r>
       <rPr>
@@ -3923,81 +3970,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>FREAK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>RSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秘钥</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致远程代码执行漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中间人解密漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回话重开加密降级漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Oracle Database Server 'TNS Listener'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程数据投毒漏洞（</t>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书链存在弱</t>
     </r>
     <r>
       <rPr>
@@ -4006,81 +4005,49 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>CVE-2012-1675</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>RSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秘钥</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Redis </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致本地信息泄露漏洞</t>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程解密流量漏洞</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Redis </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个安全漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SMB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不要求签名</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSH </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用弱</t>
+      <t xml:space="preserve">SSL/TLS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持小于</t>
     </r>
     <r>
       <rPr>
@@ -4089,46 +4056,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>MAC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>算法</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSL/TLS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重新协商握手时中间人明文数据注入漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不可信</t>
+      <t>1024bits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
     </r>
     <r>
       <rPr>
@@ -4137,33 +4075,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证书</t>
+      <t>Diffie-Hellman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>算法系数</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证书链存在少于</t>
+      <t xml:space="preserve">SSL/TLS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持弱</t>
     </r>
     <r>
       <rPr>
@@ -4172,17 +4110,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2048bits</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
+      <t>DHE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码套件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSL/TLS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持弱</t>
     </r>
     <r>
       <rPr>
@@ -4201,23 +4155,23 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>秘钥</t>
+      <t>密码套件</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证书链存在弱</t>
+      <t xml:space="preserve">Symantec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -4226,49 +4180,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>RSA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秘钥</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程解密流量漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSL/TLS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持小于</t>
+      <t>Blue Coat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -4277,17 +4199,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>1024bits</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
+      <t xml:space="preserve"> Reporter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个安全漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -4296,33 +4218,30 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Diffie-Hellman</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>算法系数</t>
+      <t>SA158</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">SSL/TLS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持弱</t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>终端服务加密等级不符合</t>
     </r>
     <r>
       <rPr>
@@ -4331,33 +4250,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>DHE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>密码套件</t>
+      <t>FIPS-140</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">SSL/TLS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持弱</t>
+      <t>TLS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>协议存在</t>
     </r>
     <r>
       <rPr>
@@ -4366,33 +4285,62 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>RSA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>密码套件</t>
+      <t>CRIME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>漏洞</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Symantec </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>Telnet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器未加密</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发现未知服务器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Zabbix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器的</t>
     </r>
     <r>
       <rPr>
@@ -4401,17 +4349,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Blue Coat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动检查</t>
     </r>
     <r>
       <rPr>
@@ -4420,17 +4368,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> Reporter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多个安全漏洞（</t>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命令注入漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ESXI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致空指针解引用漏洞</t>
     </r>
     <r>
       <rPr>
@@ -4439,30 +4403,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>SA158</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>终端服务加密等级不符合</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -4471,33 +4422,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>FIPS-140</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标准</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>TLS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>协议存在</t>
+      <t>VMSA-2017-0015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -4506,33 +4441,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>CRIME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>漏洞</t>
+      <t xml:space="preserve"> </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>Telnet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器未加密</t>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据保护器版本不支持</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4545,23 +4470,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>发现未知服务器</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Zabbix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器的</t>
+      <t>未禁用</t>
     </r>
     <r>
       <rPr>
@@ -4570,17 +4479,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活动检查</t>
+      <t>HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
     </r>
     <r>
       <rPr>
@@ -4589,33 +4498,111 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命令注入漏洞</t>
+      <t>TRACE/TRACK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ESXI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致空指针解引用漏洞</t>
+      <t xml:space="preserve">Windows </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平台版本过低已不再受支持存在多个漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个安全漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致报文拒绝服务漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致签名验证漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致缓冲区溢出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致</t>
     </r>
     <r>
       <rPr>
@@ -4624,45 +4611,113 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t xml:space="preserve"> ASN.1 asn1_d2i_Read_bio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内存损坏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OPENSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致默认弱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2017-0015</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位分组密码（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>SWEET32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DTLS CBC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拒绝服务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本不再受支持</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4671,7 +4726,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4720,6 +4775,13 @@
     <font>
       <sz val="10"/>
       <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -4785,7 +4847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4837,6 +4899,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5177,10 +5242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3092"/>
+  <dimension ref="A1:B3092"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5306,7 +5371,7 @@
         <v>155</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -5314,7 +5379,7 @@
         <v>167</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -5322,7 +5387,7 @@
         <v>156</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
@@ -5338,7 +5403,7 @@
         <v>96</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -5346,7 +5411,7 @@
         <v>112</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5354,7 +5419,7 @@
         <v>69</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5466,7 +5531,7 @@
         <v>125</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
@@ -5474,7 +5539,7 @@
         <v>126</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -5482,7 +5547,7 @@
         <v>127</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
@@ -5506,7 +5571,7 @@
         <v>146</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -5514,7 +5579,7 @@
         <v>157</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -5522,7 +5587,7 @@
         <v>164</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -5530,15 +5595,15 @@
         <v>59</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>193</v>
+      <c r="B44" s="19" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5546,7 +5611,7 @@
         <v>114</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5554,7 +5619,7 @@
         <v>129</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5562,7 +5627,7 @@
         <v>36</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -5570,7 +5635,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -5578,7 +5643,7 @@
         <v>4</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>198</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5586,7 +5651,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -5594,7 +5659,7 @@
         <v>30</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5602,7 +5667,7 @@
         <v>115</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5610,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5618,7 +5683,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5626,7 +5691,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5634,7 +5699,7 @@
         <v>19</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5642,7 +5707,7 @@
         <v>17</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -5650,7 +5715,7 @@
         <v>18</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5658,7 +5723,7 @@
         <v>25</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5666,7 +5731,7 @@
         <v>23</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5674,7 +5739,7 @@
         <v>24</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
@@ -5682,7 +5747,7 @@
         <v>94</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -5690,7 +5755,7 @@
         <v>16</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
@@ -5698,7 +5763,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -5706,7 +5771,7 @@
         <v>83</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="38.25" x14ac:dyDescent="0.15">
@@ -5714,7 +5779,7 @@
         <v>47</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5722,7 +5787,7 @@
         <v>29</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5730,7 +5795,7 @@
         <v>8</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
@@ -5738,7 +5803,7 @@
         <v>158</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
@@ -5746,7 +5811,7 @@
         <v>168</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
@@ -5754,7 +5819,7 @@
         <v>145</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
@@ -5762,7 +5827,7 @@
         <v>166</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
@@ -5770,7 +5835,7 @@
         <v>159</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
@@ -5778,7 +5843,7 @@
         <v>148</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
@@ -5786,7 +5851,7 @@
         <v>154</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5794,7 +5859,7 @@
         <v>15</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
@@ -5802,7 +5867,7 @@
         <v>150</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
@@ -5810,15 +5875,15 @@
         <v>153</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="24.75" x14ac:dyDescent="0.15">
       <c r="A79" s="12" t="s">
         <v>169</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
@@ -5826,7 +5891,7 @@
         <v>152</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5834,15 +5899,15 @@
         <v>57</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A82" s="12" t="s">
         <v>142</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
@@ -5850,7 +5915,7 @@
         <v>160</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
@@ -5858,7 +5923,7 @@
         <v>141</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
@@ -5866,7 +5931,7 @@
         <v>147</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
@@ -5874,7 +5939,7 @@
         <v>140</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
@@ -5882,7 +5947,7 @@
         <v>151</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
@@ -5890,7 +5955,7 @@
         <v>149</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
@@ -5898,7 +5963,7 @@
         <v>161</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="24.75" x14ac:dyDescent="0.15">
@@ -5906,7 +5971,7 @@
         <v>162</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5914,7 +5979,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5922,7 +5987,7 @@
         <v>14</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5930,7 +5995,7 @@
         <v>11</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
@@ -5938,7 +6003,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5946,7 +6011,7 @@
         <v>97</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5954,7 +6019,7 @@
         <v>51</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5962,7 +6027,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5970,7 +6035,7 @@
         <v>39</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5978,7 +6043,7 @@
         <v>116</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5986,7 +6051,7 @@
         <v>55</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5994,7 +6059,7 @@
         <v>31</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6002,7 +6067,7 @@
         <v>71</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6010,7 +6075,7 @@
         <v>48</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6018,7 +6083,7 @@
         <v>42</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
@@ -6026,7 +6091,7 @@
         <v>27</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6034,7 +6099,7 @@
         <v>21</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6042,7 +6107,7 @@
         <v>32</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6050,7 +6115,7 @@
         <v>60</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6058,7 +6123,7 @@
         <v>26</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
@@ -6066,7 +6131,7 @@
         <v>44</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>217</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
@@ -6074,7 +6139,7 @@
         <v>68</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
@@ -6082,7 +6147,7 @@
         <v>143</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
@@ -6090,7 +6155,7 @@
         <v>110</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6098,7 +6163,7 @@
         <v>103</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
@@ -6106,7 +6171,7 @@
         <v>77</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6114,7 +6179,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
@@ -6122,7 +6187,7 @@
         <v>82</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
@@ -6130,7 +6195,7 @@
         <v>170</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6138,7 +6203,7 @@
         <v>10</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6146,7 +6211,7 @@
         <v>9</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6154,7 +6219,7 @@
         <v>46</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
@@ -6162,7 +6227,7 @@
         <v>95</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6170,7 +6235,7 @@
         <v>62</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
@@ -6178,7 +6243,7 @@
         <v>79</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6186,7 +6251,7 @@
         <v>92</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
@@ -6194,7 +6259,7 @@
         <v>105</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6202,7 +6267,7 @@
         <v>117</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6210,7 +6275,7 @@
         <v>61</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6218,7 +6283,7 @@
         <v>53</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6226,7 +6291,7 @@
         <v>118</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6234,7 +6299,7 @@
         <v>78</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6242,7 +6307,7 @@
         <v>108</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6250,7 +6315,7 @@
         <v>109</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6258,7 +6323,7 @@
         <v>74</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6266,7 +6331,7 @@
         <v>70</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6274,7 +6339,7 @@
         <v>73</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6282,7 +6347,7 @@
         <v>81</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6290,7 +6355,7 @@
         <v>41</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6298,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6306,7 +6371,7 @@
         <v>107</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
@@ -6314,7 +6379,7 @@
         <v>67</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6322,7 +6387,7 @@
         <v>45</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6330,7 +6395,7 @@
         <v>63</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6338,7 +6403,7 @@
         <v>93</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6346,7 +6411,7 @@
         <v>104</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6354,7 +6419,7 @@
         <v>7</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
@@ -6362,7 +6427,7 @@
         <v>33</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6370,7 +6435,7 @@
         <v>119</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6378,7 +6443,7 @@
         <v>49</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6386,7 +6451,7 @@
         <v>50</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
@@ -6394,7 +6459,7 @@
         <v>165</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6402,7 +6467,7 @@
         <v>28</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6410,7 +6475,7 @@
         <v>6</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6418,7 +6483,7 @@
         <v>37</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
@@ -6426,7 +6491,7 @@
         <v>87</v>
       </c>
       <c r="B155" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
@@ -6434,7 +6499,7 @@
         <v>80</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
@@ -6442,7 +6507,7 @@
         <v>85</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
@@ -6450,7 +6515,7 @@
         <v>130</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6458,7 +6523,7 @@
         <v>131</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6466,7 +6531,7 @@
         <v>132</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6474,7 +6539,7 @@
         <v>133</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6482,7 +6547,7 @@
         <v>134</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6490,7 +6555,7 @@
         <v>135</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6498,7 +6563,7 @@
         <v>136</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6506,7 +6571,7 @@
         <v>137</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6514,7 +6579,7 @@
         <v>138</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
@@ -6522,7 +6587,7 @@
         <v>52</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6530,7 +6595,7 @@
         <v>120</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
@@ -6538,7 +6603,7 @@
         <v>144</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6546,7 +6611,7 @@
         <v>139</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6554,7 +6619,7 @@
         <v>54</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6562,7 +6627,7 @@
         <v>13</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">

--- a/nessus-name.xlsx
+++ b/nessus-name.xlsx
@@ -1278,41 +1278,81 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发现</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微软</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>mDNS</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>微软</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>IIS 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>IIS 6</t>
+      <t xml:space="preserve">.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不再受支持</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Windows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程桌面协议中间人攻击漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Windows Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统版本不再受支持</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微软</t>
     </r>
     <r>
       <rPr>
@@ -1321,49 +1361,19 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">.0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不再受支持</t>
+      <t>Windows SMB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空会话验证漏洞</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Windows</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程桌面协议中间人攻击漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Windows Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统版本不再受支持</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1383,30 +1393,48 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Windows SMB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>空会话验证漏洞</t>
+      <t>Windows SMBv0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MongoDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未授权访问漏洞</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>微软</t>
+      <t>MS 2647518</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -1415,38 +1443,22 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Windows SMBv0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多个漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MongoDB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未授权访问漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>MS 2647518</t>
+      <t xml:space="preserve"> ActiveX Kill Bits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全更新</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KB28 20197</t>
     </r>
     <r>
       <rPr>
@@ -1465,7 +1477,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> ActiveX Kill Bits</t>
+      <t>ActiveX Kill Bits</t>
     </r>
     <r>
       <rPr>
@@ -1480,7 +1492,7 @@
   </si>
   <si>
     <r>
-      <t>KB28 20197</t>
+      <t>KB300 9008</t>
     </r>
     <r>
       <rPr>
@@ -1499,22 +1511,22 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>ActiveX Kill Bits</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安全更新</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>KB300 9008</t>
+      <t>POODLE SSL 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息泄露漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MS11-090</t>
     </r>
     <r>
       <rPr>
@@ -1533,22 +1545,22 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>POODLE SSL 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>信息泄露漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MS11-090</t>
+      <t>ActiveX Kill Bits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全更新</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MS13-090</t>
     </r>
     <r>
       <rPr>
@@ -1582,17 +1594,31 @@
   </si>
   <si>
     <r>
-      <t>MS13-090</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
+      <t>MS14-066</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：远程代码执行漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IM14-078</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：特权提升漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -1601,46 +1627,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>ActiveX Kill Bits</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安全更新</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MS14-066</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：远程代码执行漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>IM14-078</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：特权提升漏洞（</t>
+      <t>2992719</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MS15-034</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -1649,32 +1661,123 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2992719</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MS15-034</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
+      <t xml:space="preserve">HTTP.sys </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程代码执行漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MS17-010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：远程代码执行漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NTP 'ntp_request.c'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程拒绝服务漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个安全漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个拒绝服务漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL AES-NI CBC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中间人劫持漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Oracle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库版本不再受支持</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Redis DoS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -1683,123 +1786,77 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">HTTP.sys </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程代码执行漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MS17-010</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：远程代码执行漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NTP 'ntp_request.c'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程拒绝服务漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个安全漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个拒绝服务漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL AES-NI CBC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中间人劫持漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Oracle </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据库版本不再受支持</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Redis DoS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>漏洞（</t>
+      <t>CVE-2017-15047</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Redis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务未执行密码认证保护</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Serv-U FTP SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拒绝服务漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Serv-U FTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拒绝服务漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SNMP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认</t>
     </r>
     <r>
       <rPr>
@@ -1808,77 +1865,37 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>CVE-2017-15047</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Redis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务未执行密码认证保护</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Serv-U FTP SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拒绝服务漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Serv-U FTP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拒绝服务漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SNMP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>默认</t>
+      <t>Community Name "public"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Solaris 10 Telnet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录认证绕过</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSL/TLS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受诫礼（</t>
     </r>
     <r>
       <rPr>
@@ -1887,37 +1904,89 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Community Name "public"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Solaris 10 Telnet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录认证绕过</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSL/TLS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>受诫礼（</t>
+      <t>BAR-MITZVAH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）攻击漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSL v2/v3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开启</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">POODLE SSLv3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>趋势控制管理器远程命令执行漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FreeBSD 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统版本不再受支持</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VMware vCenter Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在安全更新</t>
     </r>
     <r>
       <rPr>
@@ -1926,89 +1995,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>BAR-MITZVAH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）攻击漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSL v2/v3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开启</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">POODLE SSLv3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安全漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>趋势控制管理器远程命令执行漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>FreeBSD 8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统版本不再受支持</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">VMware vCenter Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存在安全更新</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2017,17 +2014,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>VMSA-2015-0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -2036,17 +2033,22 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2015-0001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VMware vCenter 5.5 LDAP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书认证存在中间人欺骗漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2057,20 +2059,15 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">VMware vCenter 5.5 LDAP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证书认证存在中间人欺骗漏洞</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2079,17 +2076,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>VMSA-2015-0006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VMware vCenter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在多个安全漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2098,32 +2110,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2015-0006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">VMware vCenter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存在多个安全漏洞</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2132,17 +2129,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>VMSA-2015-0007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VMware vCenter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在多个安全漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2151,33 +2164,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2015-0007</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">VMware vCenter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存在多个安全漏洞</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2186,17 +2183,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>VMSA-2015-0008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vmware vCenter Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致</t>
     </r>
     <r>
       <rPr>
@@ -2205,32 +2217,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2015-0008</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vmware vCenter Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致</t>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反序列化漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2239,17 +2236,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>反序列化漏洞</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2258,17 +2255,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>VMSA-2016-0005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vmware vCenter Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致反射性</t>
     </r>
     <r>
       <rPr>
@@ -2277,32 +2289,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2016-0005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vmware vCenter Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致反射性</t>
+      <t>XSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2311,17 +2308,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>XSS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>漏洞</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2330,17 +2327,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>VMSA-2016-0009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vmware vCenter Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致推理执行侧信道漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2349,32 +2361,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2016-0009</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vmware vCenter Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致推理执行侧信道漏洞</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2383,17 +2380,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>VMSA-2018-0020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vmware vCenter Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个</t>
     </r>
     <r>
       <rPr>
@@ -2402,32 +2414,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2018-0020</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vmware vCenter Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个</t>
+      <t>XXE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2436,17 +2433,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>XXE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>漏洞</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2455,17 +2452,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>VMSA-2016-0022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VMware vCenter Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本较低导致多个安全楼漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2474,7 +2486,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2016-0022</t>
+      <t xml:space="preserve"> (VMSA-2017-0017</t>
     </r>
     <r>
       <rPr>
@@ -2489,17 +2501,17 @@
   </si>
   <si>
     <r>
-      <t>VMware vCenter Server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本较低导致多个安全楼漏洞</t>
+      <t xml:space="preserve">Vmware vCenter Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致在超级管理员权限下</t>
     </r>
     <r>
       <rPr>
@@ -2508,32 +2520,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> (VMSA-2017-0017</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vmware vCenter Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致在超级管理员权限下</t>
+      <t>Guest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户复原漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2542,17 +2539,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Guest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户复原漏洞</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2561,17 +2558,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>VMSA-2018-0004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -2580,17 +2577,22 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2018-0004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vmware vCenter Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个</t>
     </r>
     <r>
       <rPr>
@@ -2599,22 +2601,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vmware vCenter Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多个</t>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2623,17 +2620,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>漏洞</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2642,347 +2639,347 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>VMSA-2015-0003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jboss </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低不再受支持</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致使用默认脆弱的块密码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Splunk Enterprise </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本较低导致多个安全漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器使用密文分组链接</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持弱算法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书带有错误的主机名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持中等强度密码套件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个安全漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致拒绝服务漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SNMP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反射型分布式拒绝服务攻击漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书过期</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>终端服务不只使用网络层认证</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>终端服务加密等级为中等或低</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>心脏出血漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自签名证书</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持弱密码套件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Apache HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2015-0003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Jboss </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低不再受支持</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致使用默认脆弱的块密码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Splunk Enterprise </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本较低导致多个安全漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSH </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器使用密文分组链接</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSH </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持弱算法</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证书带有错误的主机名</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持中等强度密码套件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个安全漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致拒绝服务漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SNMP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>反射型分布式拒绝服务攻击漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证书过期</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>终端服务不只使用网络层认证</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>终端服务加密等级为中等或低</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>心脏出血漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自签名证书</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持弱密码套件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Apache HTTP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>http:cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息公开</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apache Tomcat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多项安全漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ESXi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多项安全漏洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>http:cookie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>信息公开</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Apache Tomcat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多项安全漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ESXi </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多项安全漏洞</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2991,17 +2988,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>VMSA-2016-0002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -3010,17 +3007,22 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2016-0002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ESXI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多项安全漏洞</t>
     </r>
     <r>
       <rPr>
@@ -3031,20 +3033,15 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ESXI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多项安全漏洞</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -3053,17 +3050,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>VMSA-2017-0006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -3072,17 +3069,22 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2017-0006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据保护器多重漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -3091,22 +3093,47 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>HP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据保护器多重漏洞（</t>
+      <t>HPSBMU02595 SSRT101253</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HP Data Protector </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程命令执行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HP SMH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个安全漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -3115,7 +3142,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>HPSBMU02595 SSRT101253</t>
+      <t>HPSBMU03553</t>
     </r>
     <r>
       <rPr>
@@ -3130,65 +3157,33 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">HP Data Protector </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程命令执行</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>HP SMH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多个安全漏洞（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>OPENSL1.1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认弱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>HPSBMU03553</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>OPENSL1.1.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>默认弱</t>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位分组密码（</t>
     </r>
     <r>
       <rPr>
@@ -3196,16 +3191,30 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位分组密码（</t>
+      <t>SWEET32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致</t>
     </r>
     <r>
       <rPr>
@@ -3213,17 +3222,18 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>SWEET32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
+      <t xml:space="preserve"> _ATTRIBUTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内存泄漏拒绝服务漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3232,6 +3242,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="黑体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3241,69 +3252,53 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> _ATTRIBUTE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内存泄漏拒绝服务漏洞</t>
+      <t>DER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式数据处理漏洞</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>Oracle MavVIEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个漏洞（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>DER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式数据处理漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Oracle MavVIEW</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多个漏洞（</t>
+      <t>2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
     </r>
     <r>
       <rPr>
@@ -3311,16 +3306,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2012</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
     </r>
     <r>
       <rPr>
@@ -3328,16 +3323,27 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
     </r>
     <r>
       <rPr>
@@ -3345,27 +3351,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>CPU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>返回</t>
+      <t>Bleichenbacher Oracle Threat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -3373,45 +3368,50 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Bleichenbacher Oracle Threat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>ROBOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）信息披露</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开启了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>ROBOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）信息披露</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开启了</t>
+      <t>SSH v1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测到</t>
     </r>
     <r>
       <rPr>
@@ -3420,20 +3420,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>SSH v1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检测到</t>
+      <t>TLS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本</t>
     </r>
     <r>
       <rPr>
@@ -3442,52 +3439,81 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>TLS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>协议</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Apache HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器字节范围拒绝服务漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Apache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>协议</t>
+      <t>ETag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标题信息公开</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>ESXI 5.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多项安全漏洞</t>
+      <t>MS16-047</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -3496,17 +3522,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>SAM/LSAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程协议安全更新</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NTP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模式</t>
     </r>
     <r>
       <rPr>
@@ -3515,80 +3557,68 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2015-0007</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Apache HTTP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器字节范围拒绝服务漏洞</t>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扫描仪</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>Apache</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个安全漏洞（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>ETag</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标题信息公开</t>
+      <t>POODLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>MS16-047</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个安全漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -3597,33 +3627,81 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>SAM/LSAD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程协议安全更新</t>
+      <t>FREAK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">NTP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模式</t>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致远程代码执行漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中间人解密漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回话重开加密降级漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Oracle Database Server 'TNS Listener'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程数据投毒漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -3632,33 +3710,81 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扫描仪</t>
+      <t>CVE-2012-1675</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个安全漏洞（</t>
+      <t xml:space="preserve">Redis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致本地信息泄露漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Redis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个安全漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SMB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不要求签名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用弱</t>
     </r>
     <r>
       <rPr>
@@ -3667,33 +3793,49 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>POODLE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>MAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>算法</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个安全漏洞（</t>
+      <t xml:space="preserve">SSL/TLS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重新协商握手时中间人明文数据注入漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书链存在少于</t>
     </r>
     <r>
       <rPr>
@@ -3702,81 +3844,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>FREAK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致远程代码执行漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中间人解密漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回话重开加密降级漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Oracle Database Server 'TNS Listener'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程数据投毒漏洞（</t>
+      <t>2048bits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
     </r>
     <r>
       <rPr>
@@ -3785,81 +3863,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>CVE-2012-1675</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>RSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秘钥</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Redis </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致本地信息泄露漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Redis </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个安全漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SMB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不要求签名</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSH </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用弱</t>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书链存在弱</t>
     </r>
     <r>
       <rPr>
@@ -3868,22 +3898,38 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>MAC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>算法</t>
+      <t>RSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秘钥</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程解密流量漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">SSL/TLS </t>
     </r>
     <r>
@@ -3894,20 +3940,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>重新协商握手时中间人明文数据注入漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不可信</t>
+      <t>支持小于</t>
     </r>
     <r>
       <rPr>
@@ -3916,33 +3949,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证书</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证书链存在少于</t>
+      <t>1024bits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
     </r>
     <r>
       <rPr>
@@ -3951,17 +3968,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2048bits</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
+      <t>Diffie-Hellman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>算法系数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSL/TLS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持弱</t>
     </r>
     <r>
       <rPr>
@@ -3970,33 +4003,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>RSA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秘钥</t>
+      <t>DHE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码套件</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证书链存在弱</t>
+      <t xml:space="preserve">SSL/TLS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持弱</t>
     </r>
     <r>
       <rPr>
@@ -4015,39 +4048,23 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>秘钥</t>
+      <t>密码套件</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程解密流量漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSL/TLS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持小于</t>
+      <t xml:space="preserve">Symantec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -4056,17 +4073,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>1024bits</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
+      <t>Blue Coat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -4075,33 +4092,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Diffie-Hellman</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>算法系数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSL/TLS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持弱</t>
+      <t xml:space="preserve"> Reporter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个安全漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -4110,33 +4111,30 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>DHE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>密码套件</t>
+      <t>SA158</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">SSL/TLS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持弱</t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>终端服务加密等级不符合</t>
     </r>
     <r>
       <rPr>
@@ -4145,33 +4143,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>RSA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>密码套件</t>
+      <t>FIPS-140</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Symantec </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>TLS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>协议存在</t>
     </r>
     <r>
       <rPr>
@@ -4180,17 +4178,49 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Blue Coat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>CRIME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Telnet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器未加密</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Zabbix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器的</t>
     </r>
     <r>
       <rPr>
@@ -4199,17 +4229,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> Reporter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多个安全漏洞（</t>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动检查</t>
     </r>
     <r>
       <rPr>
@@ -4218,30 +4248,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>SA158</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命令注入漏洞</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>终端服务加密等级不符合</t>
+      <t xml:space="preserve">ESXI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致空指针解引用漏洞</t>
     </r>
     <r>
       <rPr>
@@ -4250,33 +4283,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>FIPS-140</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标准</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>TLS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>协议存在</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -4285,62 +4302,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>CRIME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Telnet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器未加密</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发现未知服务器</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Zabbix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器的</t>
+      <t>VMSA-2017-0015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -4349,17 +4321,36 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活动检查</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据保护器版本不支持</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未禁用</t>
     </r>
     <r>
       <rPr>
@@ -4368,33 +4359,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命令注入漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ESXI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致空指针解引用漏洞</t>
+      <t>HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
     </r>
     <r>
       <rPr>
@@ -4403,17 +4378,111 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>TRACE/TRACK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Windows </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平台版本过低已不再受支持存在多个漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个安全漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致报文拒绝服务漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致签名验证漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致缓冲区溢出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致</t>
     </r>
     <r>
       <rPr>
@@ -4422,187 +4491,126 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2017-0015</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t xml:space="preserve"> ASN.1 asn1_d2i_Read_bio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内存损坏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OPENSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致默认弱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>HP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据保护器版本不支持</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未禁用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位分组密码（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>HTTP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>SWEET32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>TRACE/TRACK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法</t>
+      <t>DTLS CBC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拒绝服务</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Windows </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平台版本过低已不再受支持存在多个漏洞</t>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本不再受支持</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个安全漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致报文拒绝服务漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致签名验证漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致缓冲区溢出</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致</t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测到</t>
     </r>
     <r>
       <rPr>
@@ -4611,113 +4619,81 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> ASN.1 asn1_d2i_Read_bio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内存损坏</t>
+      <t>mDNS</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">OPENSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致默认弱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书不可信</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测未知服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ESXI 5.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多项安全漏洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位分组密码（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>SWEET32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>VMSA-2015-0007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="黑体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>DTLS CBC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拒绝服务</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本不再受支持</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4726,7 +4702,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4785,6 +4761,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4794,7 +4777,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -4802,52 +4785,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4868,18 +4810,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4889,19 +4819,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5242,10 +5163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3092"/>
+  <dimension ref="A1:B3091"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5335,7 +5256,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -5367,27 +5288,27 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>269</v>
+      <c r="B15" s="9" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>254</v>
+      <c r="B16" s="8" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>270</v>
+      <c r="B17" s="8" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
@@ -5402,31 +5323,31 @@
       <c r="A19" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>255</v>
+      <c r="B19" s="9" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>255</v>
+      <c r="B20" s="9" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>255</v>
+      <c r="B21" s="9" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5434,7 +5355,7 @@
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="9" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5442,7 +5363,7 @@
       <c r="A24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="9" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5482,7 +5403,7 @@
       <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="10" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5490,7 +5411,7 @@
       <c r="A30" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="10" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5498,7 +5419,7 @@
       <c r="A31" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="10" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5531,7 +5452,7 @@
         <v>125</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
@@ -5539,15 +5460,15 @@
         <v>126</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>297</v>
+      <c r="B37" s="10" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
@@ -5567,27 +5488,27 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>298</v>
+      <c r="B42" s="9" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -5595,22 +5516,22 @@
         <v>59</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>299</v>
+      <c r="B44" s="11" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="10" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5626,16 +5547,16 @@
       <c r="A47" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>195</v>
+      <c r="B47" s="11" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>196</v>
+      <c r="B48" s="8" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -5643,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5651,7 +5572,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -5659,7 +5580,7 @@
         <v>30</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5667,7 +5588,7 @@
         <v>115</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5675,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5683,7 +5604,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5691,7 +5612,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5699,7 +5620,7 @@
         <v>19</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5707,7 +5628,7 @@
         <v>17</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -5715,7 +5636,7 @@
         <v>18</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5723,7 +5644,7 @@
         <v>25</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5731,7 +5652,7 @@
         <v>23</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5739,15 +5660,15 @@
         <v>24</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>207</v>
+      <c r="B62" s="8" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -5755,7 +5676,7 @@
         <v>16</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
@@ -5763,7 +5684,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -5771,15 +5692,15 @@
         <v>83</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>210</v>
+      <c r="B66" s="8" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5787,7 +5708,7 @@
         <v>29</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5795,63 +5716,63 @@
         <v>8</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="8" t="s">
         <v>168</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>302</v>
+      <c r="B71" s="8" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>303</v>
+      <c r="B72" s="8" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="8" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>304</v>
+      <c r="B75" s="9" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5859,39 +5780,39 @@
         <v>15</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="8" t="s">
         <v>150</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="8" t="s">
         <v>153</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B79" s="13" t="s">
-        <v>305</v>
+      <c r="B79" s="9" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="8" t="s">
         <v>152</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5899,79 +5820,79 @@
         <v>57</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B82" s="12" t="s">
-        <v>306</v>
+      <c r="B82" s="8" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B83" s="12" t="s">
-        <v>307</v>
+      <c r="B83" s="8" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="8" t="s">
         <v>141</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="8" t="s">
         <v>147</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="8" t="s">
         <v>140</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="8" t="s">
         <v>151</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="8" t="s">
         <v>149</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B90" s="12" t="s">
-        <v>262</v>
+      <c r="B90" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5979,7 +5900,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5987,7 +5908,7 @@
         <v>14</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5995,7 +5916,7 @@
         <v>11</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
@@ -6003,7 +5924,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6011,7 +5932,7 @@
         <v>97</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6019,7 +5940,7 @@
         <v>51</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6027,7 +5948,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6035,7 +5956,7 @@
         <v>39</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6043,7 +5964,7 @@
         <v>116</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6051,7 +5972,7 @@
         <v>55</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6059,7 +5980,7 @@
         <v>31</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6067,7 +5988,7 @@
         <v>71</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6075,7 +5996,7 @@
         <v>48</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6083,7 +6004,7 @@
         <v>42</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
@@ -6091,7 +6012,7 @@
         <v>27</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6099,7 +6020,7 @@
         <v>21</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6107,7 +6028,7 @@
         <v>32</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6115,7 +6036,7 @@
         <v>60</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6123,15 +6044,15 @@
         <v>26</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B110" s="12" t="s">
-        <v>308</v>
+      <c r="B110" s="8" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
@@ -6139,15 +6060,15 @@
         <v>68</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B112" s="12" t="s">
-        <v>264</v>
+      <c r="B112" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
@@ -6155,7 +6076,7 @@
         <v>110</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6163,7 +6084,7 @@
         <v>103</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
@@ -6171,7 +6092,7 @@
         <v>77</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6179,7 +6100,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
@@ -6187,15 +6108,15 @@
         <v>82</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B118" s="12" t="s">
-        <v>265</v>
+      <c r="B118" s="8" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6203,7 +6124,7 @@
         <v>10</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6211,7 +6132,7 @@
         <v>9</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6219,7 +6140,7 @@
         <v>46</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
@@ -6227,7 +6148,7 @@
         <v>95</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6235,7 +6156,7 @@
         <v>62</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
@@ -6243,7 +6164,7 @@
         <v>79</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6251,7 +6172,7 @@
         <v>92</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
@@ -6259,7 +6180,7 @@
         <v>105</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6267,7 +6188,7 @@
         <v>117</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6275,7 +6196,7 @@
         <v>61</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6283,7 +6204,7 @@
         <v>53</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6291,7 +6212,7 @@
         <v>118</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6299,7 +6220,7 @@
         <v>78</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6307,7 +6228,7 @@
         <v>108</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6315,7 +6236,7 @@
         <v>109</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6323,7 +6244,7 @@
         <v>74</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6331,7 +6252,7 @@
         <v>70</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6339,7 +6260,7 @@
         <v>73</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6347,7 +6268,7 @@
         <v>81</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6355,7 +6276,7 @@
         <v>41</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6363,7 +6284,7 @@
         <v>1</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6371,7 +6292,7 @@
         <v>107</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
@@ -6379,255 +6300,255 @@
         <v>67</v>
       </c>
       <c r="B141" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A142" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A143" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B143" s="10" t="s">
+    <row r="147" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A147" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B147" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B144" s="10" t="s">
+    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B150" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B145" s="10" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A146" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B146" s="10" t="s">
+    <row r="153" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A147" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B147" s="10" t="s">
+    <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A148" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A150" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B150" s="10" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A156" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A158" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A167" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A169" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A151" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A152" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A154" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A155" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B155" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A156" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A157" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A158" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B161" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A167" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B167" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A169" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B169" s="18" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B170" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A171" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B171" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A172" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
@@ -18305,10 +18226,6 @@
     <row r="3091" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3091" s="2"/>
       <c r="B3091" s="2"/>
-    </row>
-    <row r="3092" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3092" s="2"/>
-      <c r="B3092" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B172">

--- a/nessus-name.xlsx
+++ b/nessus-name.xlsx
@@ -1278,81 +1278,41 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>微软</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>IIS 6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>mDNS</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微软</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">.0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不再受支持</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Windows</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程桌面协议中间人攻击漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Windows Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统版本不再受支持</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>微软</t>
+      <t>IIS 6</t>
     </r>
     <r>
       <rPr>
@@ -1361,19 +1321,49 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Windows SMB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>空会话验证漏洞</t>
+      <t xml:space="preserve">.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不再受支持</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Windows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程桌面协议中间人攻击漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Windows Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统版本不再受支持</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1393,48 +1383,30 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Windows SMBv0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多个漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MongoDB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未授权访问漏洞</t>
+      <t>Windows SMB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空会话验证漏洞</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>MS 2647518</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微软</t>
     </r>
     <r>
       <rPr>
@@ -1443,22 +1415,38 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> ActiveX Kill Bits</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安全更新</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>KB28 20197</t>
+      <t>Windows SMBv0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MongoDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未授权访问漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MS 2647518</t>
     </r>
     <r>
       <rPr>
@@ -1477,7 +1465,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>ActiveX Kill Bits</t>
+      <t xml:space="preserve"> ActiveX Kill Bits</t>
     </r>
     <r>
       <rPr>
@@ -1492,7 +1480,7 @@
   </si>
   <si>
     <r>
-      <t>KB300 9008</t>
+      <t>KB28 20197</t>
     </r>
     <r>
       <rPr>
@@ -1511,22 +1499,22 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>POODLE SSL 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>信息泄露漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MS11-090</t>
+      <t>ActiveX Kill Bits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全更新</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KB300 9008</t>
     </r>
     <r>
       <rPr>
@@ -1545,22 +1533,22 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>ActiveX Kill Bits</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安全更新</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MS13-090</t>
+      <t>POODLE SSL 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息泄露漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MS11-090</t>
     </r>
     <r>
       <rPr>
@@ -1594,31 +1582,17 @@
   </si>
   <si>
     <r>
-      <t>MS14-066</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：远程代码执行漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>IM14-078</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：特权提升漏洞（</t>
+      <t>MS13-090</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -1627,32 +1601,46 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2992719</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MS15-034</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
+      <t>ActiveX Kill Bits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全更新</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MS14-066</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：远程代码执行漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IM14-078</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：特权提升漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -1661,123 +1649,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">HTTP.sys </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程代码执行漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MS17-010</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：远程代码执行漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NTP 'ntp_request.c'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程拒绝服务漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个安全漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个拒绝服务漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL AES-NI CBC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中间人劫持漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Oracle </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据库版本不再受支持</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Redis DoS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>漏洞（</t>
+      <t>2992719</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MS15-034</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -1786,77 +1683,123 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>CVE-2017-15047</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Redis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务未执行密码认证保护</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Serv-U FTP SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拒绝服务漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Serv-U FTP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拒绝服务漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SNMP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>默认</t>
+      <t xml:space="preserve">HTTP.sys </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程代码执行漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MS17-010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：远程代码执行漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NTP 'ntp_request.c'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程拒绝服务漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个安全漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个拒绝服务漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL AES-NI CBC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中间人劫持漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Oracle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库版本不再受支持</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Redis DoS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -1865,37 +1808,77 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Community Name "public"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Solaris 10 Telnet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录认证绕过</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSL/TLS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>受诫礼（</t>
+      <t>CVE-2017-15047</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Redis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务未执行密码认证保护</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Serv-U FTP SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拒绝服务漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Serv-U FTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拒绝服务漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SNMP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认</t>
     </r>
     <r>
       <rPr>
@@ -1904,89 +1887,37 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>BAR-MITZVAH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）攻击漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSL v2/v3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开启</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">POODLE SSLv3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安全漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>趋势控制管理器远程命令执行漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>FreeBSD 8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统版本不再受支持</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">VMware vCenter Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存在安全更新</t>
+      <t>Community Name "public"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Solaris 10 Telnet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录认证绕过</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSL/TLS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>受诫礼（</t>
     </r>
     <r>
       <rPr>
@@ -1995,17 +1926,89 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>BAR-MITZVAH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）攻击漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSL v2/v3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开启</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">POODLE SSLv3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>趋势控制管理器远程命令执行漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FreeBSD 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统版本不再受支持</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VMware vCenter Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在安全更新</t>
     </r>
     <r>
       <rPr>
@@ -2014,17 +2017,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2015-0001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2033,22 +2036,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">VMware vCenter 5.5 LDAP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证书认证存在中间人欺骗漏洞</t>
+      <t>VMSA-2015-0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -2059,15 +2057,20 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VMware vCenter 5.5 LDAP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书认证存在中间人欺骗漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2076,32 +2079,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2015-0006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">VMware vCenter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存在多个安全漏洞</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2110,17 +2098,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>VMSA-2015-0006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VMware vCenter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在多个安全漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2129,33 +2132,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2015-0007</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">VMware vCenter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存在多个安全漏洞</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2164,17 +2151,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>VMSA-2015-0007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VMware vCenter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存在多个安全漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2183,32 +2186,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2015-0008</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vmware vCenter Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2217,17 +2205,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>反序列化漏洞</t>
+      <t>VMSA-2015-0008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vmware vCenter Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致</t>
     </r>
     <r>
       <rPr>
@@ -2236,17 +2239,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反序列化漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2255,32 +2258,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2016-0005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vmware vCenter Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致反射性</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2289,17 +2277,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>XSS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>漏洞</t>
+      <t>VMSA-2016-0005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vmware vCenter Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致反射性</t>
     </r>
     <r>
       <rPr>
@@ -2308,17 +2311,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>XSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2327,32 +2330,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2016-0009</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vmware vCenter Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致推理执行侧信道漏洞</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2361,17 +2349,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>VMSA-2016-0009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vmware vCenter Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致推理执行侧信道漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2380,32 +2383,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2018-0020</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vmware vCenter Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2414,17 +2402,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>XXE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>漏洞</t>
+      <t>VMSA-2018-0020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vmware vCenter Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个</t>
     </r>
     <r>
       <rPr>
@@ -2433,17 +2436,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>XXE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2452,32 +2455,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2016-0022</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>VMware vCenter Server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本较低导致多个安全楼漏洞</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2486,7 +2474,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> (VMSA-2017-0017</t>
+      <t>VMSA-2016-0022</t>
     </r>
     <r>
       <rPr>
@@ -2501,17 +2489,17 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Vmware vCenter Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致在超级管理员权限下</t>
+      <t>VMware vCenter Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本较低导致多个安全楼漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2520,17 +2508,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Guest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户复原漏洞</t>
+      <t xml:space="preserve"> (VMSA-2017-0017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vmware vCenter Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致在超级管理员权限下</t>
     </r>
     <r>
       <rPr>
@@ -2539,17 +2542,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>Guest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户复原漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2558,17 +2561,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2018-0004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -2577,22 +2580,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Vmware vCenter Server </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多个</t>
+      <t>VMSA-2018-0004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -2601,17 +2599,22 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>漏洞</t>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vmware vCenter Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个</t>
     </r>
     <r>
       <rPr>
@@ -2620,17 +2623,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2639,347 +2642,347 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2015-0003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Jboss </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低不再受支持</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致使用默认脆弱的块密码</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Splunk Enterprise </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本较低导致多个安全漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSH </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器使用密文分组链接</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSH </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持弱算法</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证书带有错误的主机名</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持中等强度密码套件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个安全漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致拒绝服务漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SNMP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>反射型分布式拒绝服务攻击漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证书过期</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>终端服务不只使用网络层认证</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>终端服务加密等级为中等或低</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>心脏出血漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自签名证书</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持弱密码套件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Apache HTTP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>http:cookie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>信息公开</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Apache Tomcat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多项安全漏洞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ESXi </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多项安全漏洞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>VMSA-2015-0003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jboss </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低不再受支持</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致使用默认脆弱的块密码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Splunk Enterprise </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本较低导致多个安全漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器使用密文分组链接</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持弱算法</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书带有错误的主机名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持中等强度密码套件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个安全漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致拒绝服务漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SNMP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反射型分布式拒绝服务攻击漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书过期</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>终端服务不只使用网络层认证</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>终端服务加密等级为中等或低</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>心脏出血漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自签名证书</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持弱密码套件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Apache HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>http:cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息公开</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apache Tomcat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多项安全漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ESXi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多项安全漏洞</t>
     </r>
     <r>
       <rPr>
@@ -2988,17 +2991,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2016-0002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -3007,22 +3010,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ESXI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多项安全漏洞</t>
+      <t>VMSA-2016-0002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -3033,15 +3031,20 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ESXI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多项安全漏洞</t>
     </r>
     <r>
       <rPr>
@@ -3050,17 +3053,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2017-0006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -3069,22 +3072,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>HP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据保护器多重漏洞（</t>
+      <t>VMSA-2017-0006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -3093,47 +3091,22 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>HPSBMU02595 SSRT101253</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HP Data Protector </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程命令执行</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>HP SMH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多个安全漏洞（</t>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据保护器多重漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -3142,7 +3115,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>HPSBMU03553</t>
+      <t>HPSBMU02595 SSRT101253</t>
     </r>
     <r>
       <rPr>
@@ -3157,33 +3130,65 @@
   </si>
   <si>
     <r>
-      <t>OPENSL1.1.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>默认弱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t xml:space="preserve">HP Data Protector </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程命令执行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>HP SMH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个安全漏洞（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位分组密码（</t>
+      <t>HPSBMU03553</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>OPENSL1.1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认弱</t>
     </r>
     <r>
       <rPr>
@@ -3191,30 +3196,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>SWEET32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致</t>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位分组密码（</t>
     </r>
     <r>
       <rPr>
@@ -3222,18 +3213,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> _ATTRIBUTE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内存泄漏拒绝服务漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>SWEET32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <r>
@@ -3242,7 +3232,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
         <rFont val="黑体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3252,53 +3241,69 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>DER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>格式数据处理漏洞</t>
+      <t xml:space="preserve"> _ATTRIBUTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内存泄漏拒绝服务漏洞</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>Oracle MavVIEW</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多个漏洞（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2012</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
+      <t>DER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>格式数据处理漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Oracle MavVIEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -3306,16 +3311,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
+      <t>2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
     </r>
     <r>
       <rPr>
@@ -3323,27 +3328,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>CPU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>返回</t>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
     </r>
     <r>
       <rPr>
@@ -3351,16 +3345,27 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Bleichenbacher Oracle Threat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返回</t>
     </r>
     <r>
       <rPr>
@@ -3368,50 +3373,45 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>ROBOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）信息披露</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开启了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>Bleichenbacher Oracle Threat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>SSH v1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检测到</t>
+      <t>ROBOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）信息披露</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开启了</t>
     </r>
     <r>
       <rPr>
@@ -3420,17 +3420,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>TLS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本</t>
+      <t>SSH v1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测到</t>
     </r>
     <r>
       <rPr>
@@ -3439,81 +3442,52 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>协议</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Apache HTTP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器字节范围拒绝服务漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Apache</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>TLS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>ETag</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标题信息公开</t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>协议</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>MS16-047</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
+      <t>ESXI 5.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多项安全漏洞</t>
     </r>
     <r>
       <rPr>
@@ -3522,33 +3496,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>SAM/LSAD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程协议安全更新</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">NTP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模式</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -3557,68 +3515,80 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扫描仪</t>
+      <t>VMSA-2015-0007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apache HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器字节范围拒绝服务漏洞</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个安全漏洞（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>Apache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>POODLE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>ETag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标题信息公开</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个安全漏洞（</t>
+      <t>MS16-047</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -3627,81 +3597,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>FREAK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>SAM/LSAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程协议安全更新</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致远程代码执行漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中间人解密漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回话重开加密降级漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Oracle Database Server 'TNS Listener'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程数据投毒漏洞（</t>
+      <t xml:space="preserve">NTP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模式</t>
     </r>
     <r>
       <rPr>
@@ -3710,81 +3632,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>CVE-2012-1675</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扫描仪</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Redis </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致本地信息泄露漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Redis </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个安全漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SMB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不要求签名</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSH </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用弱</t>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个安全漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -3793,49 +3667,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>MAC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>算法</t>
+      <t>POODLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">SSL/TLS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重新协商握手时中间人明文数据注入漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证书链存在少于</t>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个安全漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -3844,17 +3702,81 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2048bits</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
+      <t>FREAK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致远程代码执行漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中间人解密漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回话重开加密降级漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Oracle Database Server 'TNS Listener'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程数据投毒漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -3863,33 +3785,81 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>RSA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秘钥</t>
+      <t>CVE-2012-1675</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证书链存在弱</t>
+      <t xml:space="preserve">Redis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致本地信息泄露漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Redis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个安全漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SMB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不要求签名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用弱</t>
     </r>
     <r>
       <rPr>
@@ -3898,49 +3868,46 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>RSA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秘钥</t>
+      <t>MAC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>算法</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>远程解密流量漏洞</t>
+      <t xml:space="preserve">SSL/TLS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重新协商握手时中间人明文数据注入漏洞</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">SSL/TLS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持小于</t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不可信</t>
     </r>
     <r>
       <rPr>
@@ -3949,17 +3916,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>1024bits</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书链存在少于</t>
     </r>
     <r>
       <rPr>
@@ -3968,33 +3951,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Diffie-Hellman</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>算法系数</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SSL/TLS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持弱</t>
+      <t>2048bits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
     </r>
     <r>
       <rPr>
@@ -4003,33 +3970,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>DHE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>密码套件</t>
+      <t>RSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秘钥</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">SSL/TLS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持弱</t>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证书链存在弱</t>
     </r>
     <r>
       <rPr>
@@ -4048,23 +4015,39 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>密码套件</t>
+      <t>秘钥</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Symantec </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>SSL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>远程解密流量漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSL/TLS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持小于</t>
     </r>
     <r>
       <rPr>
@@ -4073,17 +4056,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Blue Coat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>1024bits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
     </r>
     <r>
       <rPr>
@@ -4092,17 +4075,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> Reporter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多个安全漏洞（</t>
+      <t>Diffie-Hellman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>算法系数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SSL/TLS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持弱</t>
     </r>
     <r>
       <rPr>
@@ -4111,30 +4110,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>SA158</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>DHE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码套件</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>终端服务加密等级不符合</t>
+      <t xml:space="preserve">SSL/TLS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持弱</t>
     </r>
     <r>
       <rPr>
@@ -4143,33 +4145,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>FIPS-140</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标准</t>
+      <t>RSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码套件</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>TLS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>协议存在</t>
+      <t xml:space="preserve">Symantec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -4178,49 +4180,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>CRIME</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Telnet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器未加密</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Zabbix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>服务器的</t>
+      <t>Blue Coat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -4229,17 +4199,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>活动检查</t>
+      <t xml:space="preserve"> Reporter </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多个安全漏洞（</t>
     </r>
     <r>
       <rPr>
@@ -4248,33 +4218,30 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命令注入漏洞</t>
+      <t>SA158</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ESXI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致空指针解引用漏洞</t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>终端服务加密等级不符合</t>
     </r>
     <r>
       <rPr>
@@ -4283,17 +4250,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>FIPS-140</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TLS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>协议存在</t>
     </r>
     <r>
       <rPr>
@@ -4302,17 +4285,62 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2017-0015</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>CRIME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Telnet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器未加密</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发现未知服务器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Zabbix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器的</t>
     </r>
     <r>
       <rPr>
@@ -4321,36 +4349,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>HP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据保护器版本不支持</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未禁用</t>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动检查</t>
     </r>
     <r>
       <rPr>
@@ -4359,17 +4368,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>HTTP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的</t>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>命令注入漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ESXI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致空指针解引用漏洞</t>
     </r>
     <r>
       <rPr>
@@ -4378,111 +4403,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>TRACE/TRACK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Windows </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平台版本过低已不再受支持存在多个漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致多个安全漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致报文拒绝服务漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致签名验证漏洞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致缓冲区溢出</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -4491,126 +4422,187 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> ASN.1 asn1_d2i_Read_bio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内存损坏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OPENSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致默认弱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>VMSA-2017-0015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位分组密码（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据保护器版本不支持</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未禁用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>SWEET32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OpenSSL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本过低导致</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>DTLS CBC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拒绝服务</t>
+      <t>TRACE/TRACK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Windows </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平台版本过低已不再受支持存在多个漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">OpenSSL </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>版本不再受支持</t>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致多个安全漏洞</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检测到</t>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致报文拒绝服务漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致签名验证漏洞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致缓冲区溢出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致</t>
     </r>
     <r>
       <rPr>
@@ -4619,81 +4611,113 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>mDNS</t>
+      <t xml:space="preserve"> ASN.1 asn1_d2i_Read_bio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内存损坏</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>SSL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>证书不可信</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测未知服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ESXI 5.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>多项安全漏洞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t xml:space="preserve">OPENSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致默认弱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位分组密码（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>VMSA-2015-0007</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>SWEET32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="黑体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本过低导致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DTLS CBC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拒绝服务</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">OpenSSL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本不再受支持</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4702,7 +4726,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4761,13 +4785,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4777,7 +4794,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4785,11 +4802,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4810,6 +4868,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4819,10 +4889,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5163,10 +5242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3091"/>
+  <dimension ref="A1:B3092"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5256,7 +5335,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="12" t="s">
         <v>163</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -5288,27 +5367,27 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>267</v>
+      <c r="B15" s="13" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>253</v>
+      <c r="B16" s="12" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>268</v>
+      <c r="B17" s="12" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
@@ -5323,31 +5402,31 @@
       <c r="A19" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>254</v>
+      <c r="B19" s="13" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>254</v>
+      <c r="B20" s="13" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>254</v>
+      <c r="B21" s="13" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="13" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5355,7 +5434,7 @@
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="13" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5363,7 +5442,7 @@
       <c r="A24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="13" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5403,7 +5482,7 @@
       <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="14" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5411,7 +5490,7 @@
       <c r="A30" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="14" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5419,7 +5498,7 @@
       <c r="A31" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="14" t="s">
         <v>187</v>
       </c>
     </row>
@@ -5452,7 +5531,7 @@
         <v>125</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
@@ -5460,15 +5539,15 @@
         <v>126</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>293</v>
+      <c r="B37" s="14" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
@@ -5488,27 +5567,27 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>257</v>
+      <c r="B40" s="13" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>258</v>
+      <c r="B41" s="13" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>294</v>
+      <c r="B42" s="13" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -5516,22 +5595,22 @@
         <v>59</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>295</v>
+      <c r="B44" s="19" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="14" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5547,16 +5626,16 @@
       <c r="A47" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>305</v>
+      <c r="B47" s="14" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>195</v>
+      <c r="B48" s="12" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -5564,7 +5643,7 @@
         <v>4</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5572,7 +5651,7 @@
         <v>5</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -5580,7 +5659,7 @@
         <v>30</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5588,7 +5667,7 @@
         <v>115</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5596,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5604,7 +5683,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5612,7 +5691,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5620,7 +5699,7 @@
         <v>19</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5628,7 +5707,7 @@
         <v>17</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -5636,7 +5715,7 @@
         <v>18</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5644,7 +5723,7 @@
         <v>25</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5652,7 +5731,7 @@
         <v>23</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5660,15 +5739,15 @@
         <v>24</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>206</v>
+      <c r="B62" s="12" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -5676,7 +5755,7 @@
         <v>16</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
@@ -5684,7 +5763,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -5692,15 +5771,15 @@
         <v>83</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>209</v>
+      <c r="B66" s="12" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5708,7 +5787,7 @@
         <v>29</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5716,63 +5795,63 @@
         <v>8</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="12" t="s">
         <v>158</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="12" t="s">
         <v>168</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>298</v>
+      <c r="B71" s="12" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>299</v>
+      <c r="B72" s="12" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="12" t="s">
         <v>159</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="12" t="s">
         <v>148</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>300</v>
+      <c r="B75" s="13" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5780,39 +5859,39 @@
         <v>15</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="12" t="s">
         <v>150</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="12" t="s">
         <v>153</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>301</v>
+      <c r="B79" s="13" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="12" t="s">
         <v>152</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5820,79 +5899,79 @@
         <v>57</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>302</v>
+      <c r="B82" s="12" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>303</v>
+      <c r="B83" s="12" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="12" t="s">
         <v>141</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="12" t="s">
         <v>147</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="12" t="s">
         <v>140</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="12" t="s">
         <v>151</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="12" t="s">
         <v>149</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="12" t="s">
         <v>161</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>261</v>
+      <c r="B90" s="12" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5900,7 +5979,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5908,7 +5987,7 @@
         <v>14</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5916,7 +5995,7 @@
         <v>11</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
@@ -5924,7 +6003,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5932,7 +6011,7 @@
         <v>97</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5940,7 +6019,7 @@
         <v>51</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5948,7 +6027,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5956,7 +6035,7 @@
         <v>39</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5964,7 +6043,7 @@
         <v>116</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5972,7 +6051,7 @@
         <v>55</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5980,7 +6059,7 @@
         <v>31</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5988,7 +6067,7 @@
         <v>71</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -5996,7 +6075,7 @@
         <v>48</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6004,7 +6083,7 @@
         <v>42</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
@@ -6012,7 +6091,7 @@
         <v>27</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6020,7 +6099,7 @@
         <v>21</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6028,7 +6107,7 @@
         <v>32</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6036,7 +6115,7 @@
         <v>60</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6044,15 +6123,15 @@
         <v>26</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>304</v>
+      <c r="B110" s="12" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
@@ -6060,15 +6139,15 @@
         <v>68</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>263</v>
+      <c r="B112" s="12" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
@@ -6076,7 +6155,7 @@
         <v>110</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6084,7 +6163,7 @@
         <v>103</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
@@ -6092,7 +6171,7 @@
         <v>77</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6100,7 +6179,7 @@
         <v>101</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
@@ -6108,15 +6187,15 @@
         <v>82</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>264</v>
+      <c r="B118" s="12" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6124,7 +6203,7 @@
         <v>10</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6132,7 +6211,7 @@
         <v>9</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6140,7 +6219,7 @@
         <v>46</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
@@ -6148,7 +6227,7 @@
         <v>95</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6156,7 +6235,7 @@
         <v>62</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
@@ -6164,7 +6243,7 @@
         <v>79</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6172,7 +6251,7 @@
         <v>92</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
@@ -6180,7 +6259,7 @@
         <v>105</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6188,7 +6267,7 @@
         <v>117</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6196,7 +6275,7 @@
         <v>61</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6204,7 +6283,7 @@
         <v>53</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6212,7 +6291,7 @@
         <v>118</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6220,7 +6299,7 @@
         <v>78</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6228,7 +6307,7 @@
         <v>108</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6236,7 +6315,7 @@
         <v>109</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6244,7 +6323,7 @@
         <v>74</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6252,7 +6331,7 @@
         <v>70</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6260,7 +6339,7 @@
         <v>73</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -6268,7 +6347,7 @@
         <v>81</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6276,7 +6355,7 @@
         <v>41</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6284,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -6292,7 +6371,7 @@
         <v>107</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
@@ -6300,255 +6379,255 @@
         <v>67</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>252</v>
+      <c r="B142" s="10" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B143" s="6" t="s">
-        <v>285</v>
+      <c r="B143" s="10" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B144" s="6" t="s">
-        <v>286</v>
+      <c r="B144" s="10" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B145" s="6" t="s">
-        <v>287</v>
+      <c r="B145" s="10" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>223</v>
+      <c r="B146" s="10" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A147" s="6" t="s">
+      <c r="A147" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>288</v>
+      <c r="B147" s="10" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B148" s="6" t="s">
-        <v>248</v>
+      <c r="B148" s="10" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>249</v>
+      <c r="B149" s="10" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B150" s="6" t="s">
-        <v>289</v>
+      <c r="B150" s="10" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A151" s="8" t="s">
+      <c r="A151" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B151" s="9" t="s">
-        <v>266</v>
+      <c r="B151" s="16" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B152" s="6" t="s">
-        <v>290</v>
+      <c r="B152" s="10" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B153" s="6" t="s">
-        <v>224</v>
+      <c r="B153" s="10" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B154" s="6" t="s">
-        <v>291</v>
+      <c r="B154" s="10" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B155" s="6" t="s">
-        <v>225</v>
+      <c r="B155" s="17" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A156" s="6" t="s">
+      <c r="A156" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A158" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A159" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A160" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A161" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A162" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A163" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A164" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A167" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A168" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A169" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B169" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A170" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B170" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A157" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A158" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A167" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A169" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
     <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B171" s="12" t="s">
-        <v>307</v>
+      <c r="B171" s="10" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B172" s="6" t="s">
-        <v>292</v>
+      <c r="B172" s="10" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
@@ -18226,6 +18305,10 @@
     <row r="3091" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3091" s="2"/>
       <c r="B3091" s="2"/>
+    </row>
+    <row r="3092" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3092" s="2"/>
+      <c r="B3092" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B172">

--- a/nessus-name.xlsx
+++ b/nessus-name.xlsx
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$B$161</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcOnSave="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="2726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="2728">
   <si>
     <t>Microsoft Windows SMBv1 Multiple Vulnerabilities</t>
   </si>
@@ -44745,6 +44745,14 @@
   </si>
   <si>
     <t>OPENSSL 多个漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSH Weak Algorithms Supported</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSH弱密码算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -45306,10 +45314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B798"/>
+  <dimension ref="A1:B799"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A782" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E792" sqref="E792"/>
+    <sheetView tabSelected="1" topLeftCell="A786" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C795" sqref="C795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51700,6 +51708,14 @@
       </c>
       <c r="B798" s="5" t="s">
         <v>2725</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" ht="15.5">
+      <c r="A799" s="5" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B799" s="5" t="s">
+        <v>2727</v>
       </c>
     </row>
   </sheetData>
